--- a/Code/Results/Cases/Case_2_137/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_137/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001451887781487</v>
+        <v>1.05954295240795</v>
       </c>
       <c r="D2">
-        <v>1.020237418239077</v>
+        <v>1.061020417158375</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.020584559994856</v>
+        <v>1.069886259806614</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041872294322857</v>
+        <v>1.041176206423329</v>
       </c>
       <c r="J2">
-        <v>1.023589259686093</v>
+        <v>1.064528438569502</v>
       </c>
       <c r="K2">
-        <v>1.031421833422735</v>
+        <v>1.063745612861647</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.031764378709728</v>
+        <v>1.07258757005891</v>
       </c>
       <c r="N2">
-        <v>1.025042873842176</v>
+        <v>1.066040191055389</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011809245814504</v>
+        <v>1.061446953151594</v>
       </c>
       <c r="D3">
-        <v>1.02846107071377</v>
+        <v>1.062531770625125</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.02987265350132</v>
+        <v>1.071636908074198</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044969775629995</v>
+        <v>1.041630489129412</v>
       </c>
       <c r="J3">
-        <v>1.031983075184143</v>
+        <v>1.066081170437255</v>
       </c>
       <c r="K3">
-        <v>1.038742290963396</v>
+        <v>1.065069749205786</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.040137059733375</v>
+        <v>1.074152161457901</v>
       </c>
       <c r="N3">
-        <v>1.033448609521017</v>
+        <v>1.067595127980495</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018241935772079</v>
+        <v>1.062674897157349</v>
       </c>
       <c r="D4">
-        <v>1.033570789509766</v>
+        <v>1.063505908473114</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.035648789685</v>
+        <v>1.072766085730645</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046877944555044</v>
+        <v>1.041921356050786</v>
       </c>
       <c r="J4">
-        <v>1.03719024801204</v>
+        <v>1.067081583140043</v>
       </c>
       <c r="K4">
-        <v>1.043280248821684</v>
+        <v>1.065922247435578</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.045335191878633</v>
+        <v>1.075160495427255</v>
       </c>
       <c r="N4">
-        <v>1.038663177131601</v>
+        <v>1.06859696138407</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020886684278993</v>
+        <v>1.063190170824803</v>
       </c>
       <c r="D5">
-        <v>1.035671951506695</v>
+        <v>1.063914539758365</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.038025232344076</v>
+        <v>1.073239945860077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047658628738142</v>
+        <v>1.042042903942948</v>
       </c>
       <c r="J5">
-        <v>1.039329593787137</v>
+        <v>1.067501142245324</v>
       </c>
       <c r="K5">
-        <v>1.045143798179336</v>
+        <v>1.066279621363161</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.047471751475263</v>
+        <v>1.075583443374933</v>
       </c>
       <c r="N5">
-        <v>1.040805561023085</v>
+        <v>1.069017116311405</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021327388345404</v>
+        <v>1.063276632198457</v>
       </c>
       <c r="D6">
-        <v>1.03602209076001</v>
+        <v>1.063983098641492</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.038421318780379</v>
+        <v>1.073319459955446</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047788487984049</v>
+        <v>1.042063269579498</v>
       </c>
       <c r="J6">
-        <v>1.039685987369762</v>
+        <v>1.06757152907394</v>
       </c>
       <c r="K6">
-        <v>1.045454195351041</v>
+        <v>1.066339566842996</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.047827734223279</v>
+        <v>1.075654402636033</v>
       </c>
       <c r="N6">
-        <v>1.041162460725477</v>
+        <v>1.069087603097391</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018277503005953</v>
+        <v>1.062681785989616</v>
       </c>
       <c r="D7">
-        <v>1.033599045336597</v>
+        <v>1.063511372124828</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907978918</v>
       </c>
       <c r="F7">
-        <v>1.035680742427863</v>
+        <v>1.072772420773486</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046888458765445</v>
+        <v>1.041922983050152</v>
       </c>
       <c r="J7">
-        <v>1.037219024701811</v>
+        <v>1.067087193271971</v>
       </c>
       <c r="K7">
-        <v>1.043305319171399</v>
+        <v>1.065927026657006</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624459044</v>
       </c>
       <c r="M7">
-        <v>1.045363927468555</v>
+        <v>1.075166150610875</v>
       </c>
       <c r="N7">
-        <v>1.038691994687573</v>
+        <v>1.068602579483029</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005011092178564</v>
+        <v>1.060187274052409</v>
       </c>
       <c r="D8">
-        <v>1.023062799233962</v>
+        <v>1.061531984235503</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.023774602013347</v>
+        <v>1.070478657592704</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042939963853378</v>
+        <v>1.041330375566531</v>
       </c>
       <c r="J8">
-        <v>1.026474925227284</v>
+        <v>1.065054094057666</v>
       </c>
       <c r="K8">
-        <v>1.033939175695437</v>
+        <v>1.064194011508639</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591057</v>
       </c>
       <c r="M8">
-        <v>1.034641880377754</v>
+        <v>1.073117182026451</v>
       </c>
       <c r="N8">
-        <v>1.027932637359427</v>
+        <v>1.06656659303464</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9793142747942827</v>
+        <v>1.055759500535637</v>
       </c>
       <c r="D9">
-        <v>1.00268334837476</v>
+        <v>1.05801417329524</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.000785375081577</v>
+        <v>1.066408309892517</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035167469792578</v>
+        <v>1.040262238476178</v>
       </c>
       <c r="J9">
-        <v>1.005619257986255</v>
+        <v>1.061437741452129</v>
       </c>
       <c r="K9">
-        <v>1.015733039628949</v>
+        <v>1.061106571606201</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.01386572296149</v>
+        <v>1.069474781492026</v>
       </c>
       <c r="N9">
-        <v>1.007047352678736</v>
+        <v>1.062945104793601</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9601857566162606</v>
+        <v>1.052784730569532</v>
       </c>
       <c r="D10">
-        <v>0.9875513207349483</v>
+        <v>1.055647885812576</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9837398798647111</v>
+        <v>1.063674488095137</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029305087366229</v>
+        <v>1.039533713669774</v>
       </c>
       <c r="J10">
-        <v>0.9900731962674042</v>
+        <v>1.059003045042395</v>
       </c>
       <c r="K10">
-        <v>1.002149037367138</v>
+        <v>1.059024722945813</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9984090558440104</v>
+        <v>1.067024038050622</v>
       </c>
       <c r="N10">
-        <v>0.9914792137690871</v>
+        <v>1.060506950835702</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9513010449689231</v>
+        <v>1.051490889294087</v>
       </c>
       <c r="D11">
-        <v>0.9805372295188431</v>
+        <v>1.054618034267223</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9758437681115473</v>
+        <v>1.062485654266548</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026566477550586</v>
+        <v>1.039214272564067</v>
       </c>
       <c r="J11">
-        <v>0.9828501116002341</v>
+        <v>1.057942906543361</v>
       </c>
       <c r="K11">
-        <v>0.9958357617698904</v>
+        <v>1.058117462679461</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9912360810135989</v>
+        <v>1.06595727039613</v>
       </c>
       <c r="N11">
-        <v>0.9842458714931901</v>
+        <v>1.0594453068184</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9478964234325695</v>
+        <v>1.051009410021613</v>
       </c>
       <c r="D12">
-        <v>0.9778521412785089</v>
+        <v>1.054234695909902</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9728216791893399</v>
+        <v>1.062043284537584</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025514957177918</v>
+        <v>1.039095011866669</v>
       </c>
       <c r="J12">
-        <v>0.980082168306226</v>
+        <v>1.057548216450246</v>
       </c>
       <c r="K12">
-        <v>0.9934163264289658</v>
+        <v>1.057779575291489</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9884887774542629</v>
+        <v>1.065560166492821</v>
       </c>
       <c r="N12">
-        <v>0.9814739974022171</v>
+        <v>1.059050056220081</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9486317132155285</v>
+        <v>1.051112729606235</v>
       </c>
       <c r="D13">
-        <v>0.9784319025668411</v>
+        <v>1.054316960059624</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.973474177710275</v>
+        <v>1.062138210177214</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025742141076289</v>
+        <v>1.039120621234977</v>
       </c>
       <c r="J13">
-        <v>0.980679953083451</v>
+        <v>1.057632920222831</v>
       </c>
       <c r="K13">
-        <v>0.9939388487248866</v>
+        <v>1.057852093877018</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9890820372787439</v>
+        <v>1.065645385829355</v>
       </c>
       <c r="N13">
-        <v>0.9820726311023924</v>
+        <v>1.059134880281739</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9510218411452038</v>
+        <v>1.051451108352849</v>
       </c>
       <c r="D14">
-        <v>0.9803169743508506</v>
+        <v>1.054586363946882</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9755958565848597</v>
+        <v>1.062449103967053</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026480285564608</v>
+        <v>1.039204426843642</v>
       </c>
       <c r="J14">
-        <v>0.9826231192967513</v>
+        <v>1.057910299972669</v>
       </c>
       <c r="K14">
-        <v>0.9956373516819302</v>
+        <v>1.05808955107552</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764513</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9910107513421682</v>
+        <v>1.065924463305277</v>
       </c>
       <c r="N14">
-        <v>0.9840185568345997</v>
+        <v>1.059412653942638</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9524801640522195</v>
+        <v>1.051659476088318</v>
       </c>
       <c r="D15">
-        <v>0.9814675128974253</v>
+        <v>1.054752245233959</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9768908882544436</v>
+        <v>1.062640551350529</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02693039650962</v>
+        <v>1.039255981716506</v>
       </c>
       <c r="J15">
-        <v>0.9838087332842747</v>
+        <v>1.058081081905338</v>
       </c>
       <c r="K15">
-        <v>0.9966736718582434</v>
+        <v>1.058235737738825</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9921877402254268</v>
+        <v>1.06609629771429</v>
       </c>
       <c r="N15">
-        <v>0.9852058545299774</v>
+        <v>1.05958367840524</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9607615982115745</v>
+        <v>1.052870475300988</v>
       </c>
       <c r="D16">
-        <v>0.9880062598612983</v>
+        <v>1.055716121757839</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.984252121105471</v>
+        <v>1.06375327836608</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029482284377424</v>
+        <v>1.03955482933946</v>
       </c>
       <c r="J16">
-        <v>0.9905413187242327</v>
+        <v>1.059073276856675</v>
       </c>
       <c r="K16">
-        <v>1.002558169299415</v>
+        <v>1.059084810944214</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9988741178838806</v>
+        <v>1.067094716597027</v>
       </c>
       <c r="N16">
-        <v>0.9919480010134983</v>
+        <v>1.060577282387214</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9657862191078086</v>
+        <v>1.053628546643669</v>
       </c>
       <c r="D17">
-        <v>0.9919775723078313</v>
+        <v>1.05631932130258</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9887241814082112</v>
+        <v>1.064449889511487</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03102673492589</v>
+        <v>1.039741216498404</v>
       </c>
       <c r="J17">
-        <v>0.9946257835495889</v>
+        <v>1.059694060356259</v>
       </c>
       <c r="K17">
-        <v>1.006127741248459</v>
+        <v>1.059615844895436</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.002932847923271</v>
+        <v>1.06771949010085</v>
       </c>
       <c r="N17">
-        <v>0.9960382662474012</v>
+        <v>1.061198947470572</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9686600097385935</v>
+        <v>1.054070164156548</v>
       </c>
       <c r="D18">
-        <v>0.9942502185732117</v>
+        <v>1.056670653762091</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9912838506273588</v>
+        <v>1.064855723239279</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031908601549622</v>
+        <v>1.039849548975799</v>
       </c>
       <c r="J18">
-        <v>0.9969616226925725</v>
+        <v>1.060055585159373</v>
       </c>
       <c r="K18">
-        <v>1.008168944347143</v>
+        <v>1.059925029059184</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.005254751608643</v>
+        <v>1.068083372975701</v>
       </c>
       <c r="N18">
-        <v>0.9983774225498923</v>
+        <v>1.061560985680375</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.96963060844237</v>
+        <v>1.054220651345152</v>
       </c>
       <c r="D19">
-        <v>0.99501798963236</v>
+        <v>1.056790364209245</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9921486678043696</v>
+        <v>1.064994019981775</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032206188303435</v>
+        <v>1.039886422638499</v>
       </c>
       <c r="J19">
-        <v>0.9977504849967419</v>
+        <v>1.06017876011857</v>
       </c>
       <c r="K19">
-        <v>1.008858268272931</v>
+        <v>1.060030358608244</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.006039036375923</v>
+        <v>1.068207357178066</v>
       </c>
       <c r="N19">
-        <v>0.9991674051290176</v>
+        <v>1.061684335562141</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9652531104592187</v>
+        <v>1.053547270113938</v>
       </c>
       <c r="D20">
-        <v>0.9915560812960685</v>
+        <v>1.056254655932402</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.9882494964945961</v>
+        <v>1.064375200339275</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03086302121715</v>
+        <v>1.039721258691886</v>
       </c>
       <c r="J20">
-        <v>0.9941924476164629</v>
+        <v>1.059627515035438</v>
       </c>
       <c r="K20">
-        <v>1.005749049808256</v>
+        <v>1.059558927924895</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>1.002502159859636</v>
+        <v>1.067652513503507</v>
       </c>
       <c r="N20">
-        <v>0.9956043149275455</v>
+        <v>1.061132307647763</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9503210200030842</v>
+        <v>1.051351488995201</v>
       </c>
       <c r="D21">
-        <v>0.9797641640018879</v>
+        <v>1.054507053613327</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.9749736426180028</v>
+        <v>1.062357575313271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026263905242665</v>
+        <v>1.039179764970033</v>
       </c>
       <c r="J21">
-        <v>0.9820533529138089</v>
+        <v>1.057828643771788</v>
       </c>
       <c r="K21">
-        <v>0.9951393269266031</v>
+        <v>1.058019650579721</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.990445181875297</v>
+        <v>1.065842305821374</v>
       </c>
       <c r="N21">
-        <v>0.9834479813180403</v>
+        <v>1.059330881780585</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9403188053981093</v>
+        <v>1.049965757698136</v>
       </c>
       <c r="D22">
-        <v>0.9718817361540155</v>
+        <v>1.05340359569656</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.9661030249917362</v>
+        <v>1.061084467753743</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023171086468622</v>
+        <v>1.038835796257467</v>
       </c>
       <c r="J22">
-        <v>0.9739218761807255</v>
+        <v>1.056692361049828</v>
       </c>
       <c r="K22">
-        <v>0.9880315871345983</v>
+        <v>1.057046684269476</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.9823772831312555</v>
+        <v>1.064699176650749</v>
       </c>
       <c r="N22">
-        <v>0.9753049569553027</v>
+        <v>1.058192985406826</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9456849380519343</v>
+        <v>1.050700857535066</v>
       </c>
       <c r="D23">
-        <v>0.9761088763446891</v>
+        <v>1.053989008910343</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.9708597902152226</v>
+        <v>1.061759804571973</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024831388539665</v>
+        <v>1.039018475776534</v>
       </c>
       <c r="J23">
-        <v>0.9782842660783424</v>
+        <v>1.057295231857732</v>
       </c>
       <c r="K23">
-        <v>0.9918447759100916</v>
+        <v>1.057562967530483</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.9867047085675881</v>
+        <v>1.065305650039683</v>
       </c>
       <c r="N23">
-        <v>0.9796735419469474</v>
+        <v>1.058796712360428</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9654941743859529</v>
+        <v>1.053583997186266</v>
       </c>
       <c r="D24">
-        <v>0.9917466693917871</v>
+        <v>1.056283876985443</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.9884641361471593</v>
+        <v>1.064408950667896</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030937054756485</v>
+        <v>1.039730277951949</v>
       </c>
       <c r="J24">
-        <v>0.994388396540932</v>
+        <v>1.059657585755161</v>
       </c>
       <c r="K24">
-        <v>1.005920289758816</v>
+        <v>1.05958464798062</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>1.002696909026105</v>
+        <v>1.067682779003489</v>
       </c>
       <c r="N24">
-        <v>0.9958005421219636</v>
+        <v>1.061162421071357</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9862726853461262</v>
+        <v>1.056908128114461</v>
       </c>
       <c r="D25">
-        <v>1.008196916866283</v>
+        <v>1.0589272536608</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>1.007000699662048</v>
+        <v>1.067464078762897</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037285658932686</v>
+        <v>1.040541246334985</v>
       </c>
       <c r="J25">
-        <v>1.011271027439113</v>
+        <v>1.062376768582061</v>
       </c>
       <c r="K25">
-        <v>1.020669305075302</v>
+        <v>1.061908831382576</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>1.019491302229717</v>
+        <v>1.070420312514536</v>
       </c>
       <c r="N25">
-        <v>1.012707148292485</v>
+        <v>1.063885465449766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_137/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_137/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05954295240795</v>
+        <v>1.001451887781488</v>
       </c>
       <c r="D2">
-        <v>1.061020417158375</v>
+        <v>1.020237418239078</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.069886259806614</v>
+        <v>1.020584559994858</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041176206423329</v>
+        <v>1.041872294322858</v>
       </c>
       <c r="J2">
-        <v>1.064528438569502</v>
+        <v>1.023589259686093</v>
       </c>
       <c r="K2">
-        <v>1.063745612861647</v>
+        <v>1.031421833422737</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.07258757005891</v>
+        <v>1.031764378709729</v>
       </c>
       <c r="N2">
-        <v>1.066040191055389</v>
+        <v>1.025042873842177</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061446953151594</v>
+        <v>1.011809245814506</v>
       </c>
       <c r="D3">
-        <v>1.062531770625125</v>
+        <v>1.028461070713772</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.071636908074198</v>
+        <v>1.029872653501322</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041630489129412</v>
+        <v>1.044969775629996</v>
       </c>
       <c r="J3">
-        <v>1.066081170437255</v>
+        <v>1.031983075184144</v>
       </c>
       <c r="K3">
-        <v>1.065069749205786</v>
+        <v>1.038742290963398</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.074152161457901</v>
+        <v>1.040137059733377</v>
       </c>
       <c r="N3">
-        <v>1.067595127980495</v>
+        <v>1.033448609521019</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.062674897157349</v>
+        <v>1.018241935772077</v>
       </c>
       <c r="D4">
-        <v>1.063505908473114</v>
+        <v>1.033570789509764</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.072766085730645</v>
+        <v>1.035648789684998</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041921356050786</v>
+        <v>1.046877944555043</v>
       </c>
       <c r="J4">
-        <v>1.067081583140043</v>
+        <v>1.037190248012038</v>
       </c>
       <c r="K4">
-        <v>1.065922247435578</v>
+        <v>1.043280248821683</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.075160495427255</v>
+        <v>1.045335191878631</v>
       </c>
       <c r="N4">
-        <v>1.06859696138407</v>
+        <v>1.038663177131599</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.063190170824803</v>
+        <v>1.020886684278997</v>
       </c>
       <c r="D5">
-        <v>1.063914539758365</v>
+        <v>1.035671951506698</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.073239945860077</v>
+        <v>1.038025232344079</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042042903942948</v>
+        <v>1.047658628738143</v>
       </c>
       <c r="J5">
-        <v>1.067501142245324</v>
+        <v>1.03932959378714</v>
       </c>
       <c r="K5">
-        <v>1.066279621363161</v>
+        <v>1.045143798179339</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.075583443374933</v>
+        <v>1.047471751475266</v>
       </c>
       <c r="N5">
-        <v>1.069017116311405</v>
+        <v>1.040805561023088</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.063276632198457</v>
+        <v>1.021327388345405</v>
       </c>
       <c r="D6">
-        <v>1.063983098641492</v>
+        <v>1.036022090760012</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.073319459955446</v>
+        <v>1.038421318780381</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042063269579498</v>
+        <v>1.04778848798405</v>
       </c>
       <c r="J6">
-        <v>1.06757152907394</v>
+        <v>1.039685987369763</v>
       </c>
       <c r="K6">
-        <v>1.066339566842996</v>
+        <v>1.045454195351042</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.075654402636033</v>
+        <v>1.047827734223281</v>
       </c>
       <c r="N6">
-        <v>1.069087603097391</v>
+        <v>1.041162460725478</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.062681785989616</v>
+        <v>1.018277503005951</v>
       </c>
       <c r="D7">
-        <v>1.063511372124828</v>
+        <v>1.033599045336595</v>
       </c>
       <c r="E7">
-        <v>0.9943035907978918</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.072772420773486</v>
+        <v>1.035680742427861</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041922983050152</v>
+        <v>1.046888458765444</v>
       </c>
       <c r="J7">
-        <v>1.067087193271971</v>
+        <v>1.03721902470181</v>
       </c>
       <c r="K7">
-        <v>1.065927026657006</v>
+        <v>1.043305319171397</v>
       </c>
       <c r="L7">
-        <v>0.9968970624459044</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.075166150610875</v>
+        <v>1.045363927468553</v>
       </c>
       <c r="N7">
-        <v>1.068602579483029</v>
+        <v>1.038691994687571</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.060187274052409</v>
+        <v>1.005011092178567</v>
       </c>
       <c r="D8">
-        <v>1.061531984235503</v>
+        <v>1.023062799233965</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.070478657592704</v>
+        <v>1.02377460201335</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041330375566531</v>
+        <v>1.042939963853379</v>
       </c>
       <c r="J8">
-        <v>1.065054094057666</v>
+        <v>1.026474925227287</v>
       </c>
       <c r="K8">
-        <v>1.064194011508639</v>
+        <v>1.033939175695439</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591057</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.073117182026451</v>
+        <v>1.034641880377756</v>
       </c>
       <c r="N8">
-        <v>1.06656659303464</v>
+        <v>1.02793263735943</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055759500535637</v>
+        <v>0.9793142747942836</v>
       </c>
       <c r="D9">
-        <v>1.05801417329524</v>
+        <v>1.002683348374761</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.066408309892517</v>
+        <v>1.000785375081578</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040262238476178</v>
+        <v>1.035167469792578</v>
       </c>
       <c r="J9">
-        <v>1.061437741452129</v>
+        <v>1.005619257986255</v>
       </c>
       <c r="K9">
-        <v>1.061106571606201</v>
+        <v>1.015733039628949</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.069474781492026</v>
+        <v>1.01386572296149</v>
       </c>
       <c r="N9">
-        <v>1.062945104793601</v>
+        <v>1.007047352678737</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.052784730569532</v>
+        <v>0.9601857566162612</v>
       </c>
       <c r="D10">
-        <v>1.055647885812576</v>
+        <v>0.9875513207349491</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547166</v>
       </c>
       <c r="F10">
-        <v>1.063674488095137</v>
+        <v>0.9837398798647118</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039533713669774</v>
+        <v>1.02930508736623</v>
       </c>
       <c r="J10">
-        <v>1.059003045042395</v>
+        <v>0.9900731962674049</v>
       </c>
       <c r="K10">
-        <v>1.059024722945813</v>
+        <v>1.002149037367139</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689268</v>
       </c>
       <c r="M10">
-        <v>1.067024038050622</v>
+        <v>0.9984090558440112</v>
       </c>
       <c r="N10">
-        <v>1.060506950835702</v>
+        <v>0.9914792137690875</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.051490889294087</v>
+        <v>0.9513010449689209</v>
       </c>
       <c r="D11">
-        <v>1.054618034267223</v>
+        <v>0.980537229518841</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016255</v>
       </c>
       <c r="F11">
-        <v>1.062485654266548</v>
+        <v>0.9758437681115449</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039214272564067</v>
+        <v>1.026566477550585</v>
       </c>
       <c r="J11">
-        <v>1.057942906543361</v>
+        <v>0.9828501116002319</v>
       </c>
       <c r="K11">
-        <v>1.058117462679461</v>
+        <v>0.9958357617698884</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.949155612541657</v>
       </c>
       <c r="M11">
-        <v>1.06595727039613</v>
+        <v>0.9912360810135967</v>
       </c>
       <c r="N11">
-        <v>1.0594453068184</v>
+        <v>0.9842458714931877</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051009410021613</v>
+        <v>0.9478964234325674</v>
       </c>
       <c r="D12">
-        <v>1.054234695909902</v>
+        <v>0.9778521412785069</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.062043284537584</v>
+        <v>0.9728216791893382</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039095011866669</v>
+        <v>1.025514957177917</v>
       </c>
       <c r="J12">
-        <v>1.057548216450246</v>
+        <v>0.9800821683062241</v>
       </c>
       <c r="K12">
-        <v>1.057779575291489</v>
+        <v>0.9934163264289639</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.065560166492821</v>
+        <v>0.9884887774542612</v>
       </c>
       <c r="N12">
-        <v>1.059050056220081</v>
+        <v>0.9814739974022147</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.051112729606235</v>
+        <v>0.9486317132155268</v>
       </c>
       <c r="D13">
-        <v>1.054316960059624</v>
+        <v>0.9784319025668394</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.062138210177214</v>
+        <v>0.9734741777102733</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039120621234977</v>
+        <v>1.025742141076289</v>
       </c>
       <c r="J13">
-        <v>1.057632920222831</v>
+        <v>0.9806799530834494</v>
       </c>
       <c r="K13">
-        <v>1.057852093877018</v>
+        <v>0.9939388487248851</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.065645385829355</v>
+        <v>0.9890820372787421</v>
       </c>
       <c r="N13">
-        <v>1.059134880281739</v>
+        <v>0.9820726311023907</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.051451108352849</v>
+        <v>0.9510218411451986</v>
       </c>
       <c r="D14">
-        <v>1.054586363946882</v>
+        <v>0.9803169743508461</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.062449103967053</v>
+        <v>0.9755958565848549</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039204426843642</v>
+        <v>1.026480285564606</v>
       </c>
       <c r="J14">
-        <v>1.057910299972669</v>
+        <v>0.9826231192967466</v>
       </c>
       <c r="K14">
-        <v>1.05808955107552</v>
+        <v>0.9956373516819261</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.065924463305277</v>
+        <v>0.9910107513421635</v>
       </c>
       <c r="N14">
-        <v>1.059412653942638</v>
+        <v>0.9840185568345949</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.051659476088318</v>
+        <v>0.9524801640522195</v>
       </c>
       <c r="D15">
-        <v>1.054752245233959</v>
+        <v>0.9814675128974251</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.062640551350529</v>
+        <v>0.9768908882544435</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039255981716506</v>
+        <v>1.026930396509621</v>
       </c>
       <c r="J15">
-        <v>1.058081081905338</v>
+        <v>0.9838087332842747</v>
       </c>
       <c r="K15">
-        <v>1.058235737738825</v>
+        <v>0.9966736718582434</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.06609629771429</v>
+        <v>0.9921877402254268</v>
       </c>
       <c r="N15">
-        <v>1.05958367840524</v>
+        <v>0.9852058545299773</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.052870475300988</v>
+        <v>0.9607615982115746</v>
       </c>
       <c r="D16">
-        <v>1.055716121757839</v>
+        <v>0.9880062598612983</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.06375327836608</v>
+        <v>0.9842521211054716</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03955482933946</v>
+        <v>1.029482284377424</v>
       </c>
       <c r="J16">
-        <v>1.059073276856675</v>
+        <v>0.9905413187242331</v>
       </c>
       <c r="K16">
-        <v>1.059084810944214</v>
+        <v>1.002558169299415</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.067094716597027</v>
+        <v>0.9988741178838809</v>
       </c>
       <c r="N16">
-        <v>1.060577282387214</v>
+        <v>0.991948001013499</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053628546643669</v>
+        <v>0.9657862191078085</v>
       </c>
       <c r="D17">
-        <v>1.05631932130258</v>
+        <v>0.991977572307831</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.064449889511487</v>
+        <v>0.9887241814082111</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039741216498404</v>
+        <v>1.03102673492589</v>
       </c>
       <c r="J17">
-        <v>1.059694060356259</v>
+        <v>0.9946257835495886</v>
       </c>
       <c r="K17">
-        <v>1.059615844895436</v>
+        <v>1.006127741248459</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.06771949010085</v>
+        <v>1.002932847923271</v>
       </c>
       <c r="N17">
-        <v>1.061198947470572</v>
+        <v>0.9960382662474012</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054070164156548</v>
+        <v>0.9686600097385937</v>
       </c>
       <c r="D18">
-        <v>1.056670653762091</v>
+        <v>0.9942502185732123</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.064855723239279</v>
+        <v>0.9912838506273596</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039849548975799</v>
+        <v>1.031908601549622</v>
       </c>
       <c r="J18">
-        <v>1.060055585159373</v>
+        <v>0.9969616226925728</v>
       </c>
       <c r="K18">
-        <v>1.059925029059184</v>
+        <v>1.008168944347144</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.068083372975701</v>
+        <v>1.005254751608643</v>
       </c>
       <c r="N18">
-        <v>1.061560985680375</v>
+        <v>0.998377422549893</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054220651345152</v>
+        <v>0.9696306084423708</v>
       </c>
       <c r="D19">
-        <v>1.056790364209245</v>
+        <v>0.9950179896323607</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814680089</v>
       </c>
       <c r="F19">
-        <v>1.064994019981775</v>
+        <v>0.9921486678043702</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039886422638499</v>
+        <v>1.032206188303435</v>
       </c>
       <c r="J19">
-        <v>1.06017876011857</v>
+        <v>0.9977504849967426</v>
       </c>
       <c r="K19">
-        <v>1.060030358608244</v>
+        <v>1.008858268272932</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493812709</v>
       </c>
       <c r="M19">
-        <v>1.068207357178066</v>
+        <v>1.006039036375924</v>
       </c>
       <c r="N19">
-        <v>1.061684335562141</v>
+        <v>0.9991674051290184</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053547270113938</v>
+        <v>0.9652531104592154</v>
       </c>
       <c r="D20">
-        <v>1.056254655932402</v>
+        <v>0.9915560812960654</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.064375200339275</v>
+        <v>0.9882494964945929</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039721258691886</v>
+        <v>1.030863021217149</v>
       </c>
       <c r="J20">
-        <v>1.059627515035438</v>
+        <v>0.9941924476164596</v>
       </c>
       <c r="K20">
-        <v>1.059558927924895</v>
+        <v>1.005749049808254</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.067652513503507</v>
+        <v>1.002502159859633</v>
       </c>
       <c r="N20">
-        <v>1.061132307647763</v>
+        <v>0.9956043149275426</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051351488995201</v>
+        <v>0.9503210200030886</v>
       </c>
       <c r="D21">
-        <v>1.054507053613327</v>
+        <v>0.9797641640018915</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.062357575313271</v>
+        <v>0.9749736426180065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039179764970033</v>
+        <v>1.026263905242667</v>
       </c>
       <c r="J21">
-        <v>1.057828643771788</v>
+        <v>0.982053352913813</v>
       </c>
       <c r="K21">
-        <v>1.058019650579721</v>
+        <v>0.9951393269266066</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.065842305821374</v>
+        <v>0.9904451818753008</v>
       </c>
       <c r="N21">
-        <v>1.059330881780585</v>
+        <v>0.9834479813180447</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049965757698136</v>
+        <v>0.9403188053981089</v>
       </c>
       <c r="D22">
-        <v>1.05340359569656</v>
+        <v>0.9718817361540153</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.061084467753743</v>
+        <v>0.9661030249917361</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038835796257467</v>
+        <v>1.023171086468622</v>
       </c>
       <c r="J22">
-        <v>1.056692361049828</v>
+        <v>0.9739218761807255</v>
       </c>
       <c r="K22">
-        <v>1.057046684269476</v>
+        <v>0.9880315871345982</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.064699176650749</v>
+        <v>0.9823772831312555</v>
       </c>
       <c r="N22">
-        <v>1.058192985406826</v>
+        <v>0.9753049569553027</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050700857535066</v>
+        <v>0.945684938051937</v>
       </c>
       <c r="D23">
-        <v>1.053989008910343</v>
+        <v>0.9761088763446913</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.061759804571973</v>
+        <v>0.9708597902152248</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039018475776534</v>
+        <v>1.024831388539666</v>
       </c>
       <c r="J23">
-        <v>1.057295231857732</v>
+        <v>0.9782842660783448</v>
       </c>
       <c r="K23">
-        <v>1.057562967530483</v>
+        <v>0.9918447759100937</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.065305650039683</v>
+        <v>0.9867047085675902</v>
       </c>
       <c r="N23">
-        <v>1.058796712360428</v>
+        <v>0.9796735419469497</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053583997186266</v>
+        <v>0.9654941743859532</v>
       </c>
       <c r="D24">
-        <v>1.056283876985443</v>
+        <v>0.9917466693917878</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>1.064408950667896</v>
+        <v>0.9884641361471597</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039730277951949</v>
+        <v>1.030937054756486</v>
       </c>
       <c r="J24">
-        <v>1.059657585755161</v>
+        <v>0.9943883965409327</v>
       </c>
       <c r="K24">
-        <v>1.05958464798062</v>
+        <v>1.005920289758817</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.9533716596442451</v>
       </c>
       <c r="M24">
-        <v>1.067682779003489</v>
+        <v>1.002696909026106</v>
       </c>
       <c r="N24">
-        <v>1.061162421071357</v>
+        <v>0.9958005421219641</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056908128114461</v>
+        <v>0.986272685346124</v>
       </c>
       <c r="D25">
-        <v>1.0589272536608</v>
+        <v>1.008196916866281</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801717737</v>
       </c>
       <c r="F25">
-        <v>1.067464078762897</v>
+        <v>1.007000699662046</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040541246334985</v>
+        <v>1.037285658932685</v>
       </c>
       <c r="J25">
-        <v>1.062376768582061</v>
+        <v>1.011271027439111</v>
       </c>
       <c r="K25">
-        <v>1.061908831382576</v>
+        <v>1.020669305075301</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005615</v>
       </c>
       <c r="M25">
-        <v>1.070420312514536</v>
+        <v>1.019491302229716</v>
       </c>
       <c r="N25">
-        <v>1.063885465449766</v>
+        <v>1.012707148292483</v>
       </c>
     </row>
   </sheetData>
